--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\4月5日提出分\dev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CA4F1D-F278-4B9E-9DA3-75A511697581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -43,75 +37,123 @@
     <t>弊社の業務内容をご存じですか？</t>
   </si>
   <si>
+    <t>退職理由を教えてください。</t>
+  </si>
+  <si>
+    <t>前職での業務内容を教えてください</t>
+  </si>
+  <si>
+    <t>前職で学んだスキルはなんですか？</t>
+  </si>
+  <si>
+    <t>なぜIT業界を志望していますか</t>
+  </si>
+  <si>
+    <t>なぜこの職種ですか</t>
+  </si>
+  <si>
+    <t>やってみたい業務はありますか</t>
+  </si>
+  <si>
+    <t>将来どうなりたいと考えていますか</t>
+  </si>
+  <si>
+    <t>強み・弱みを教えてください</t>
+  </si>
+  <si>
+    <t>周りからどんな性格と言われますか</t>
+  </si>
+  <si>
+    <t>他に何社応募していますか</t>
+  </si>
+  <si>
+    <t>休みは平日、土日など希望ありますか？</t>
+  </si>
+  <si>
+    <t>企業選考で大事にしていることはなんですか？</t>
+  </si>
+  <si>
+    <t>いつから働けますか？</t>
+  </si>
+  <si>
+    <t>わからないことを聞かれたとき</t>
+  </si>
+  <si>
     <t>テスト質問</t>
   </si>
   <si>
-    <t>ああああ</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前職について
-　・Java言語での金融系のクレジットシステムの開発に携わっていた
-　・CMSを使ったWeb製作、PHPでのプラグイン開発を行った
-意気込み
-　・これからは新しく今までの経験と新しく学習したPythonの知識を活かしていきたいと思っている
-</t>
-  </si>
-  <si>
-    <t>過去の経歴
-　・javaでの設計、製造、テスト、導入まで経験がある
-御社の特徴
-　・AI関連の案件も取り扱っている
-Pythonを学びより一層興味が湧いたため御社を志望させていただいた。</t>
-  </si>
-  <si>
-    <t>業務内容
-　・SES事業
-　・Fairgrit(フェアグリット)の開発、運用
-　・SESコンサル
-案件例
-　・スマホアプリ開発
-　・AI関連サービス開発
-　・金融系Webシステム開発　など</t>
+    <t>〇〇〇〇</t>
+  </si>
+  <si>
+    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
+  </si>
+  <si>
+    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
   </si>
   <si>
     <t>テスト回答</t>
   </si>
   <si>
-    <t>いいいい</t>
-  </si>
-  <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
   </si>
   <si>
-    <t>前職で得た知識と経験を活かせる企業に就職したいと考えているため、貴社を希望している。
-過去の経歴から企業に入社したい理由までをつなげて伝える。</t>
+    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
   </si>
   <si>
     <t>ホームページ、求人情報を参照</t>
   </si>
   <si>
+    <t>ネガティブにならないように、相手が納得できる内容にする</t>
+  </si>
+  <si>
+    <t>期間、業務内容、実績など</t>
+  </si>
+  <si>
+    <t>面接を受ける企業で活かせるスキルを発表する</t>
+  </si>
+  <si>
+    <t>志望動機と同じ</t>
+  </si>
+  <si>
+    <t>求人情報から逸れないように注意</t>
+  </si>
+  <si>
+    <t>独立したいなどはNG。長く会社に所属する内容がよい</t>
+  </si>
+  <si>
+    <t>入社する企業で活かせる強み、伝えて好印象につながる弱み</t>
+  </si>
+  <si>
+    <t>印象をよくする内容であればポジティブでもネガティブでも可</t>
+  </si>
+  <si>
+    <t>何社か検討しておりますが、現在は御社を最優先で検討しております</t>
+  </si>
+  <si>
+    <t>特にございませんので、求人情報通りで問題ございません</t>
+  </si>
+  <si>
+    <t>やりがい、社風など長期で働いていくことが想像できる内容</t>
+  </si>
+  <si>
+    <t>卒業後がベストですが、研修など指定があれば合わせて構いません</t>
+  </si>
+  <si>
+    <t>すみません、勉強不足のためわかりません。</t>
+  </si>
+  <si>
     <t>テストアドバイス</t>
-  </si>
-  <si>
-    <t>ううううう</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,15 +161,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,25 +208,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +256,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -263,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -298,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,16 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,150 +520,217 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\4月5日提出分\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AD50CE-EE45-483E-8912-29B3681A1518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -37,123 +43,118 @@
     <t>弊社の業務内容をご存じですか？</t>
   </si>
   <si>
+    <t>氏名、前職について、意気込みなどを端的に発表</t>
+  </si>
+  <si>
+    <t>ホームページ、求人情報を参照</t>
+  </si>
+  <si>
+    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
+  </si>
+  <si>
     <t>退職理由を教えてください。</t>
   </si>
   <si>
+    <t>ネガティブにならないように、相手が納得できる内容にする</t>
+  </si>
+  <si>
     <t>前職での業務内容を教えてください</t>
   </si>
   <si>
+    <t>期間、業務内容、実績など</t>
+  </si>
+  <si>
     <t>前職で学んだスキルはなんですか？</t>
   </si>
   <si>
+    <t>面接を受ける企業で活かせるスキルを発表する</t>
+  </si>
+  <si>
     <t>なぜIT業界を志望していますか</t>
   </si>
   <si>
+    <t>志望動機と同じ</t>
+  </si>
+  <si>
     <t>なぜこの職種ですか</t>
   </si>
   <si>
     <t>やってみたい業務はありますか</t>
   </si>
   <si>
+    <t>求人情報から逸れないように注意</t>
+  </si>
+  <si>
     <t>将来どうなりたいと考えていますか</t>
   </si>
   <si>
+    <t>独立したいなどはNG。長く会社に所属する内容がよい</t>
+  </si>
+  <si>
     <t>強み・弱みを教えてください</t>
   </si>
   <si>
+    <t>入社する企業で活かせる強み、伝えて好印象につながる弱み</t>
+  </si>
+  <si>
     <t>周りからどんな性格と言われますか</t>
   </si>
   <si>
+    <t>印象をよくする内容であればポジティブでもネガティブでも可</t>
+  </si>
+  <si>
     <t>他に何社応募していますか</t>
   </si>
   <si>
+    <t>何社か検討しておりますが、現在は御社を最優先で検討しております</t>
+  </si>
+  <si>
     <t>休みは平日、土日など希望ありますか？</t>
   </si>
   <si>
+    <t>特にございませんので、求人情報通りで問題ございません</t>
+  </si>
+  <si>
     <t>企業選考で大事にしていることはなんですか？</t>
   </si>
   <si>
+    <t>やりがい、社風など長期で働いていくことが想像できる内容</t>
+  </si>
+  <si>
     <t>いつから働けますか？</t>
   </si>
   <si>
+    <t>卒業後がベストですが、研修など指定があれば合わせて構いません</t>
+  </si>
+  <si>
     <t>わからないことを聞かれたとき</t>
   </si>
   <si>
-    <t>テスト質問</t>
-  </si>
-  <si>
-    <t>〇〇〇〇</t>
-  </si>
-  <si>
-    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
+    <t>すみません、勉強不足のためわかりません。</t>
   </si>
   <si>
     <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
-  </si>
-  <si>
-    <t>テスト回答</t>
-  </si>
-  <si>
-    <t>氏名、前職について、意気込みなどを端的に発表</t>
-  </si>
-  <si>
-    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
-  </si>
-  <si>
-    <t>ホームページ、求人情報を参照</t>
-  </si>
-  <si>
-    <t>ネガティブにならないように、相手が納得できる内容にする</t>
-  </si>
-  <si>
-    <t>期間、業務内容、実績など</t>
-  </si>
-  <si>
-    <t>面接を受ける企業で活かせるスキルを発表する</t>
-  </si>
-  <si>
-    <t>志望動機と同じ</t>
-  </si>
-  <si>
-    <t>求人情報から逸れないように注意</t>
-  </si>
-  <si>
-    <t>独立したいなどはNG。長く会社に所属する内容がよい</t>
-  </si>
-  <si>
-    <t>入社する企業で活かせる強み、伝えて好印象につながる弱み</t>
-  </si>
-  <si>
-    <t>印象をよくする内容であればポジティブでもネガティブでも可</t>
-  </si>
-  <si>
-    <t>何社か検討しておりますが、現在は御社を最優先で検討しております</t>
-  </si>
-  <si>
-    <t>特にございませんので、求人情報通りで問題ございません</t>
-  </si>
-  <si>
-    <t>やりがい、社風など長期で働いていくことが想像できる内容</t>
-  </si>
-  <si>
-    <t>卒業後がベストですが、研修など指定があれば合わせて構いません</t>
-  </si>
-  <si>
-    <t>すみません、勉強不足のためわかりません。</t>
-  </si>
-  <si>
-    <t>テストアドバイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。
+中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,8 +162,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,24 +209,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -290,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,9 +344,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,14 +520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="4" max="4" width="63.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,217 +549,218 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="132" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\4月5日提出分\dev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AD50CE-EE45-483E-8912-29B3681A1518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,7 +28,7 @@
     <t>アドバイス</t>
   </si>
   <si>
-    <t>自己紹介をお願いします</t>
+    <t>自己紹介をお願いします。</t>
   </si>
   <si>
     <t>志望動機を教えてください</t>
@@ -43,118 +37,115 @@
     <t>弊社の業務内容をご存じですか？</t>
   </si>
   <si>
+    <t>退職理由を教えてください。</t>
+  </si>
+  <si>
+    <t>前職での業務内容を教えてください</t>
+  </si>
+  <si>
+    <t>前職で学んだスキルはなんですか？</t>
+  </si>
+  <si>
+    <t>なぜIT業界を志望していますか</t>
+  </si>
+  <si>
+    <t>なぜこの職種ですか</t>
+  </si>
+  <si>
+    <t>やってみたい業務はありますか</t>
+  </si>
+  <si>
+    <t>将来どうなりたいと考えていますか</t>
+  </si>
+  <si>
+    <t>強み・弱みを教えてください</t>
+  </si>
+  <si>
+    <t>周りからどんな性格と言われますか</t>
+  </si>
+  <si>
+    <t>他に何社応募していますか</t>
+  </si>
+  <si>
+    <t>休みは平日、土日など希望ありますか？</t>
+  </si>
+  <si>
+    <t>企業選考で大事にしていることはなんですか？</t>
+  </si>
+  <si>
+    <t>いつから働けますか？</t>
+  </si>
+  <si>
+    <t>わからないことを聞かれたとき</t>
+  </si>
+  <si>
+    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。_x000D_
+中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
+  </si>
+  <si>
+    <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
+  </si>
+  <si>
+    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
+  </si>
+  <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
   </si>
   <si>
+    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
+  </si>
+  <si>
     <t>ホームページ、求人情報を参照</t>
   </si>
   <si>
-    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
-  </si>
-  <si>
-    <t>退職理由を教えてください。</t>
-  </si>
-  <si>
     <t>ネガティブにならないように、相手が納得できる内容にする</t>
   </si>
   <si>
-    <t>前職での業務内容を教えてください</t>
-  </si>
-  <si>
     <t>期間、業務内容、実績など</t>
   </si>
   <si>
-    <t>前職で学んだスキルはなんですか？</t>
-  </si>
-  <si>
     <t>面接を受ける企業で活かせるスキルを発表する</t>
   </si>
   <si>
-    <t>なぜIT業界を志望していますか</t>
-  </si>
-  <si>
     <t>志望動機と同じ</t>
   </si>
   <si>
-    <t>なぜこの職種ですか</t>
-  </si>
-  <si>
-    <t>やってみたい業務はありますか</t>
-  </si>
-  <si>
     <t>求人情報から逸れないように注意</t>
   </si>
   <si>
-    <t>将来どうなりたいと考えていますか</t>
-  </si>
-  <si>
     <t>独立したいなどはNG。長く会社に所属する内容がよい</t>
   </si>
   <si>
-    <t>強み・弱みを教えてください</t>
-  </si>
-  <si>
     <t>入社する企業で活かせる強み、伝えて好印象につながる弱み</t>
   </si>
   <si>
-    <t>周りからどんな性格と言われますか</t>
-  </si>
-  <si>
     <t>印象をよくする内容であればポジティブでもネガティブでも可</t>
   </si>
   <si>
-    <t>他に何社応募していますか</t>
-  </si>
-  <si>
     <t>何社か検討しておりますが、現在は御社を最優先で検討しております</t>
   </si>
   <si>
-    <t>休みは平日、土日など希望ありますか？</t>
-  </si>
-  <si>
     <t>特にございませんので、求人情報通りで問題ございません</t>
   </si>
   <si>
-    <t>企業選考で大事にしていることはなんですか？</t>
-  </si>
-  <si>
     <t>やりがい、社風など長期で働いていくことが想像できる内容</t>
   </si>
   <si>
-    <t>いつから働けますか？</t>
-  </si>
-  <si>
     <t>卒業後がベストですが、研修など指定があれば合わせて構いません</t>
   </si>
   <si>
-    <t>わからないことを聞かれたとき</t>
-  </si>
-  <si>
     <t>すみません、勉強不足のためわかりません。</t>
-  </si>
-  <si>
-    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。
-中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,15 +153,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,35 +193,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +248,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -309,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,10 +316,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,22 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="63.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,218 +512,203 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="132" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>8</v>
+      </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>9</v>
+      </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>10</v>
+      </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>11</v>
+      </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>12</v>
+      </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>13</v>
+      </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>14</v>
+      </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>15</v>
+      </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>16</v>
+      </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>17</v>
+      </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>18</v>
+      </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>19</v>
+      </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>20</v>
+      </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -79,7 +79,10 @@
     <t>わからないことを聞かれたとき</t>
   </si>
   <si>
-    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。_x000D_
+    <t>質問だよー</t>
+  </si>
+  <si>
+    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。_x005F_x000D_
 中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
   </si>
   <si>
@@ -87,6 +90,11 @@
   </si>
   <si>
     <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
+  </si>
+  <si>
+    <t>回答だよー_x000D_
+回答_x000D_
+たよー</t>
   </si>
   <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
@@ -492,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -534,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -548,10 +556,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -562,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -573,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -584,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -595,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -606,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -617,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -628,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -639,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -650,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -661,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -672,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -683,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -694,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -705,7 +713,31 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -28,7 +28,7 @@
     <t>アドバイス</t>
   </si>
   <si>
-    <t>自己紹介をお願いします。</t>
+    <t>自己紹介をお願いします</t>
   </si>
   <si>
     <t>志望動機を教えてください</t>
@@ -79,22 +79,33 @@
     <t>わからないことを聞かれたとき</t>
   </si>
   <si>
-    <t>質問だよー</t>
-  </si>
-  <si>
-    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。_x005F_x000D_
+    <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。
 中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
   </si>
   <si>
     <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
   </si>
   <si>
-    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
-  </si>
-  <si>
-    <t>回答だよー_x000D_
-回答_x000D_
-たよー</t>
+    <t>業務内容_x005F_x000D_
+　・SES事業_x005F_x000D_
+　・Fairgrit(フェアグリット)の開発、運用_x005F_x000D_
+　・SESコンサル_x005F_x000D_
+案件例_x005F_x000D_
+　・スマホアプリ開発_x005F_x000D_
+　・AI関連サービス開発_x005F_x000D_
+　・金融系Webシステム開発　など</t>
+  </si>
+  <si>
+    <t>・約３年。金融系のクレジットシステム開発。Cobol言語からJava言語へのリライト。契約関連の新機能追加。ログ出力機能の改善　など_x005F_x000D_
+・約２年。CMS（サイト・パブリス）を利用したWebページの製作、PHP言語によるプラグイン開発</t>
+  </si>
+  <si>
+    <t>・Java言語による設計、製造、テストの経験_x005F_x000D_
+・PHP言語による設計、製造、テストの経験_x005F_x000D_
+・リーダーによって合わせることでチームワークを高めること</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
@@ -115,7 +126,7 @@
     <t>面接を受ける企業で活かせるスキルを発表する</t>
   </si>
   <si>
-    <t>志望動機と同じ</t>
+    <t>志望動機と同じでよい</t>
   </si>
   <si>
     <t>求人情報から逸れないように注意</t>
@@ -500,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -542,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -556,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -580,8 +591,11 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -591,8 +605,11 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -603,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -613,8 +630,11 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -625,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -636,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -647,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -658,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -669,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -680,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -691,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -702,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -713,31 +733,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -46,37 +46,7 @@
     <t>前職で学んだスキルはなんですか？</t>
   </si>
   <si>
-    <t>なぜIT業界を志望していますか</t>
-  </si>
-  <si>
-    <t>なぜこの職種ですか</t>
-  </si>
-  <si>
-    <t>やってみたい業務はありますか</t>
-  </si>
-  <si>
-    <t>将来どうなりたいと考えていますか</t>
-  </si>
-  <si>
-    <t>強み・弱みを教えてください</t>
-  </si>
-  <si>
-    <t>周りからどんな性格と言われますか</t>
-  </si>
-  <si>
-    <t>他に何社応募していますか</t>
-  </si>
-  <si>
-    <t>休みは平日、土日など希望ありますか？</t>
-  </si>
-  <si>
-    <t>企業選考で大事にしていることはなんですか？</t>
-  </si>
-  <si>
-    <t>いつから働けますか？</t>
-  </si>
-  <si>
-    <t>わからないことを聞かれたとき</t>
+    <t>てすと</t>
   </si>
   <si>
     <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。
@@ -86,26 +56,30 @@
     <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
   </si>
   <si>
-    <t>業務内容_x005F_x000D_
-　・SES事業_x005F_x000D_
-　・Fairgrit(フェアグリット)の開発、運用_x005F_x000D_
-　・SESコンサル_x005F_x000D_
-案件例_x005F_x000D_
-　・スマホアプリ開発_x005F_x000D_
-　・AI関連サービス開発_x005F_x000D_
+    <t>業務内容
+　・SES事業
+　・Fairgrit(フェアグリット)の開発、運用
+　・SESコンサル
+案件例
+　・スマホアプリ開発
+　・AI関連サービス開発
 　・金融系Webシステム開発　など</t>
   </si>
   <si>
-    <t>・約３年。金融系のクレジットシステム開発。Cobol言語からJava言語へのリライト。契約関連の新機能追加。ログ出力機能の改善　など_x005F_x000D_
+    <t>新しいことに挑戦したかった！</t>
+  </si>
+  <si>
+    <t>・約３年。金融系のクレジットシステム開発。Cobol言語からJava言語へのリライト。契約関連の新機能追加。ログ出力機能の改善　など
 ・約２年。CMS（サイト・パブリス）を利用したWebページの製作、PHP言語によるプラグイン開発</t>
   </si>
   <si>
-    <t>・Java言語による設計、製造、テストの経験_x005F_x000D_
-・PHP言語による設計、製造、テストの経験_x005F_x000D_
+    <t>・Java言語による設計、製造、テストの経験
+・PHP言語による設計、製造、テストの経験
 ・リーダーによって合わせることでチームワークを高めること</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>てすと_x000D_
+てすと</t>
   </si>
   <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
@@ -126,34 +100,8 @@
     <t>面接を受ける企業で活かせるスキルを発表する</t>
   </si>
   <si>
-    <t>志望動機と同じでよい</t>
-  </si>
-  <si>
-    <t>求人情報から逸れないように注意</t>
-  </si>
-  <si>
-    <t>独立したいなどはNG。長く会社に所属する内容がよい</t>
-  </si>
-  <si>
-    <t>入社する企業で活かせる強み、伝えて好印象につながる弱み</t>
-  </si>
-  <si>
-    <t>印象をよくする内容であればポジティブでもネガティブでも可</t>
-  </si>
-  <si>
-    <t>何社か検討しておりますが、現在は御社を最優先で検討しております</t>
-  </si>
-  <si>
-    <t>特にございませんので、求人情報通りで問題ございません</t>
-  </si>
-  <si>
-    <t>やりがい、社風など長期で働いていくことが想像できる内容</t>
-  </si>
-  <si>
-    <t>卒業後がベストですが、研修など指定があれば合わせて構いません</t>
-  </si>
-  <si>
-    <t>すみません、勉強不足のためわかりません。</t>
+    <t>てすと_x000D_
+テスト</t>
   </si>
 </sst>
 </file>
@@ -511,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -553,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -567,10 +515,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -580,8 +528,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -592,10 +543,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -606,10 +557,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -619,121 +570,11 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dev/question_list.xlsx
+++ b/dev/question_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\4月5日提出分\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42457694-226A-4A70-BBFF-6CAA5995B2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -34,85 +40,31 @@
     <t>志望動機を教えてください</t>
   </si>
   <si>
-    <t>弊社の業務内容をご存じですか？</t>
-  </si>
-  <si>
-    <t>退職理由を教えてください。</t>
-  </si>
-  <si>
-    <t>前職での業務内容を教えてください</t>
-  </si>
-  <si>
-    <t>前職で学んだスキルはなんですか？</t>
-  </si>
-  <si>
-    <t>てすと</t>
+    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
+  </si>
+  <si>
+    <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>○○ ○○（氏名）です。出身は、一世を風靡したご当地キャラでも知られる千葉県の船橋市です。
 中学、高校ではずっとテニス部に所属していて、高校ではインターハイへの出場経験があります。大学でもテニスは続けていきたいと思っているので、入部を考えている人がいたらぜひ声をかけてください。いっしょに体験に行きましょう！皆さん、これからよろしくお願いします。</t>
-  </si>
-  <si>
-    <t>貴社の商品には強い思い入れがあります。社会人になり初めての給与で貴社の化粧品一式を購入し、以来ずっと愛用してきました。特に貴社の主力商品である口紅が大好きで、口紅を塗ることで気持ちが引き締まり仕事でも成果を出すことができました。</t>
-  </si>
-  <si>
-    <t>業務内容
-　・SES事業
-　・Fairgrit(フェアグリット)の開発、運用
-　・SESコンサル
-案件例
-　・スマホアプリ開発
-　・AI関連サービス開発
-　・金融系Webシステム開発　など</t>
-  </si>
-  <si>
-    <t>新しいことに挑戦したかった！</t>
-  </si>
-  <si>
-    <t>・約３年。金融系のクレジットシステム開発。Cobol言語からJava言語へのリライト。契約関連の新機能追加。ログ出力機能の改善　など
-・約２年。CMS（サイト・パブリス）を利用したWebページの製作、PHP言語によるプラグイン開発</t>
-  </si>
-  <si>
-    <t>・Java言語による設計、製造、テストの経験
-・PHP言語による設計、製造、テストの経験
-・リーダーによって合わせることでチームワークを高めること</t>
-  </si>
-  <si>
-    <t>てすと_x000D_
-てすと</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>氏名、前職について、意気込みなどを端的に発表</t>
-  </si>
-  <si>
-    <t>過去の経歴から企業に入社したい理由までをつなげて伝える</t>
-  </si>
-  <si>
-    <t>ホームページ、求人情報を参照</t>
-  </si>
-  <si>
-    <t>ネガティブにならないように、相手が納得できる内容にする</t>
-  </si>
-  <si>
-    <t>期間、業務内容、実績など</t>
-  </si>
-  <si>
-    <t>面接を受ける企業で活かせるスキルを発表する</t>
-  </si>
-  <si>
-    <t>てすと_x000D_
-テスト</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,17 +72,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,24 +125,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,6 +228,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,126 +439,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>